--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportIngList.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/fr/ExportIngList.xlsx
@@ -5,17 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Liste des ing" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Liste des ing'!$B$3:$K$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Liste des ing'!$B$3:$N$3</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$H$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Liste des ing'!$B$3:$K$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,120 +25,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>bcpg:rawMaterial</t>
-  </si>
-  <si>
-    <t>COLUMNS</t>
-  </si>
-  <si>
-    <t>cm:name</t>
-  </si>
-  <si>
-    <t>bcpg:code</t>
-  </si>
-  <si>
-    <t>bcpg:erpCode</t>
-  </si>
-  <si>
-    <t>bcpg:productHierarchy1</t>
-  </si>
-  <si>
-    <t>bcpg:productHierarchy2</t>
-  </si>
-  <si>
-    <t>cm:description</t>
-  </si>
-  <si>
-    <t>bcpg:legalName</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Code ERP</t>
-  </si>
-  <si>
-    <t>Famille</t>
-  </si>
-  <si>
-    <t>Sous famille</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Libellé légal</t>
-  </si>
-  <si>
-    <t>bcpg:ingList</t>
-  </si>
-  <si>
-    <t>bcpg:depthLevel</t>
-  </si>
-  <si>
-    <t>bcpg:ingListIng</t>
-  </si>
-  <si>
-    <t>bcpg:ingListQtyPerc</t>
-  </si>
-  <si>
-    <t>bcpg:ingListIsGMO</t>
-  </si>
-  <si>
-    <t>bcpg:ingListIsIonized</t>
-  </si>
-  <si>
-    <t>bcpg:ingListIsProcessingAid</t>
-  </si>
-  <si>
-    <t>bcpg:ingListGeoOrigin</t>
-  </si>
-  <si>
-    <t>bcpg:ingListGeoTransfo</t>
-  </si>
-  <si>
-    <t>bcpg:ingListBioOrigin</t>
-  </si>
-  <si>
-    <t>Produit</t>
-  </si>
-  <si>
-    <t>Niveau</t>
-  </si>
-  <si>
-    <t>Ingrédient</t>
-  </si>
-  <si>
-    <t>Pourcentage</t>
-  </si>
-  <si>
-    <t>OGM</t>
-  </si>
-  <si>
-    <t>Ionisation</t>
-  </si>
-  <si>
-    <t>Auxiliaire technologique</t>
-  </si>
-  <si>
-    <t>Origine géo.</t>
-  </si>
-  <si>
-    <t>Pays de transf.</t>
-  </si>
-  <si>
-    <t>Origine bio.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+  <si>
+    <t xml:space="preserve">TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLUMNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm:name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:erpCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:productHierarchy1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:productHierarchy2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm:description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:legalName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code beCPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code ERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sous famille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libellé légal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity|bcpg:erpCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity|cm:name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:depthLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingListIng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingListQtyPerc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingListQtyPercWithYield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingListIsGMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingListIsIonized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingListIsProcessingAid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingListGeoOrigin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingListGeoTransfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcpg:ingListBioOrigin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrédient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantité (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qté ap. rdmt (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ionisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auxiliaire technologique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origine géo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pays de transf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origine bio.</t>
   </si>
 </sst>
 </file>
@@ -148,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -174,7 +181,14 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -185,6 +199,14 @@
       <sz val="9"/>
       <color rgb="FF2A00FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -198,7 +220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
+        <fgColor rgb="FF004254"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
@@ -237,27 +259,51 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -270,7 +316,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -309,7 +355,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004254"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -331,27 +377,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L39" activeCellId="0" sqref="L39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -388,29 +434,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -418,7 +464,7 @@
   <autoFilter ref="B3:H3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -428,33 +474,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.15"/>
+  <sheetFormatPr defaultColWidth="10.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.2602040816327"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="7.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -469,77 +517,95 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" s="4" customFormat="true" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>37</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K3"/>
+  <autoFilter ref="B3:N3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
